--- a/Inventory (1).xlsx
+++ b/Inventory (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/550cb893095ce6d1/Documents/BI Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD0C2FC-6664-4F13-802B-DD0974B4144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823210DD-F708-4097-AC90-32D8DC07B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{A863BF48-8C29-4876-9D52-FBC372C6995E}"/>
+    <workbookView xWindow="7704" yWindow="1368" windowWidth="19560" windowHeight="10812" xr2:uid="{34036DBB-6FC1-4CF5-B92D-BFB5D72A8F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
+    <t>Product ID</t>
+  </si>
+  <si>
     <t>Average Inventory ($)</t>
   </si>
   <si>
@@ -132,20 +124,17 @@
   </si>
   <si>
     <t>PROD019</t>
-  </si>
-  <si>
-    <t>Product ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,13 +142,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,12 +155,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -186,10 +184,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -220,39 +218,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -304,7 +302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -415,6 +413,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -423,13 +428,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -494,93 +492,73 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24E8485-95C4-4E89-B481-F090623C356E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D72772-E141-4C29-A23D-41AF8FE351F7}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>55000</v>
@@ -622,9 +600,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>42500</v>
@@ -666,9 +644,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>30000</v>
@@ -710,9 +688,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>17500</v>
@@ -721,7 +699,7 @@
         <v>60000</v>
       </c>
       <c r="D5" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>350</v>
@@ -754,9 +732,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>5000</v>
@@ -765,7 +743,7 @@
         <v>30000</v>
       </c>
       <c r="D6" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>400</v>
@@ -798,18 +776,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>-7500</v>
+        <v>7500</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>450</v>
@@ -818,7 +796,7 @@
         <v>1.88</v>
       </c>
       <c r="G7" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
         <v>7000</v>
@@ -830,7 +808,7 @@
         <v>1000</v>
       </c>
       <c r="K7" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="L7" s="2">
         <v>10</v>
@@ -842,18 +820,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>-20000</v>
+        <v>20000</v>
       </c>
       <c r="C8" s="2">
-        <v>-30000</v>
+        <v>30000</v>
       </c>
       <c r="D8" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>500</v>
@@ -862,7 +840,7 @@
         <v>1.82</v>
       </c>
       <c r="G8" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
@@ -874,7 +852,7 @@
         <v>1000</v>
       </c>
       <c r="K8" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2">
         <v>10</v>
@@ -886,18 +864,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>-32500</v>
+        <v>32500</v>
       </c>
       <c r="C9" s="2">
-        <v>-60000</v>
+        <v>60000</v>
       </c>
       <c r="D9" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>550</v>
@@ -906,7 +884,7 @@
         <v>1.76</v>
       </c>
       <c r="G9" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
         <v>9000</v>
@@ -918,7 +896,7 @@
         <v>1000</v>
       </c>
       <c r="K9" s="2">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2">
         <v>10</v>
@@ -930,18 +908,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>-45000</v>
+        <v>45000</v>
       </c>
       <c r="C10" s="2">
-        <v>-90000</v>
+        <v>90000</v>
       </c>
       <c r="D10" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>600</v>
@@ -950,7 +928,7 @@
         <v>1.7</v>
       </c>
       <c r="G10" s="2">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2">
         <v>10000</v>
@@ -962,7 +940,7 @@
         <v>1000</v>
       </c>
       <c r="K10" s="2">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2">
         <v>10</v>
@@ -974,18 +952,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>-57500</v>
+        <v>57500</v>
       </c>
       <c r="C11" s="2">
-        <v>-120000</v>
+        <v>120000</v>
       </c>
       <c r="D11" s="2">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>650</v>
@@ -994,7 +972,7 @@
         <v>1.64</v>
       </c>
       <c r="G11" s="2">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2">
         <v>11000</v>
@@ -1006,7 +984,7 @@
         <v>1000</v>
       </c>
       <c r="K11" s="2">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="L11" s="2">
         <v>10</v>
@@ -1018,18 +996,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>-70000</v>
+        <v>70000</v>
       </c>
       <c r="C12" s="2">
-        <v>-150000</v>
+        <v>150000</v>
       </c>
       <c r="D12" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>700</v>
@@ -1038,7 +1016,7 @@
         <v>1.58</v>
       </c>
       <c r="G12" s="2">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2">
         <v>12000</v>
@@ -1050,7 +1028,7 @@
         <v>1000</v>
       </c>
       <c r="K12" s="2">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="L12" s="2">
         <v>10</v>
@@ -1062,18 +1040,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>-82500</v>
+        <v>82500</v>
       </c>
       <c r="C13" s="2">
-        <v>-180000</v>
+        <v>180000</v>
       </c>
       <c r="D13" s="2">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
         <v>750</v>
@@ -1082,7 +1060,7 @@
         <v>1.52</v>
       </c>
       <c r="G13" s="2">
-        <v>-35</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2">
         <v>13000</v>
@@ -1094,7 +1072,7 @@
         <v>1000</v>
       </c>
       <c r="K13" s="2">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="L13" s="2">
         <v>10</v>
@@ -1106,18 +1084,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>-95000</v>
+        <v>95000</v>
       </c>
       <c r="C14" s="2">
-        <v>-210000</v>
+        <v>210000</v>
       </c>
       <c r="D14" s="2">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2">
         <v>800</v>
@@ -1126,7 +1104,7 @@
         <v>1.46</v>
       </c>
       <c r="G14" s="2">
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
         <v>14000</v>
@@ -1138,7 +1116,7 @@
         <v>1000</v>
       </c>
       <c r="K14" s="2">
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="L14" s="2">
         <v>10</v>
@@ -1150,18 +1128,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>-107500</v>
+        <v>107500</v>
       </c>
       <c r="C15" s="2">
-        <v>-240000</v>
+        <v>240000</v>
       </c>
       <c r="D15" s="2">
-        <v>-21</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>850</v>
@@ -1170,7 +1148,7 @@
         <v>1.4</v>
       </c>
       <c r="G15" s="2">
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2">
         <v>15000</v>
@@ -1182,7 +1160,7 @@
         <v>1000</v>
       </c>
       <c r="K15" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2">
         <v>10</v>
@@ -1194,18 +1172,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>-120000</v>
+        <v>120000</v>
       </c>
       <c r="C16" s="2">
-        <v>-270000</v>
+        <v>270000</v>
       </c>
       <c r="D16" s="2">
-        <v>-23</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>900</v>
@@ -1214,7 +1192,7 @@
         <v>1.34</v>
       </c>
       <c r="G16" s="2">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2">
         <v>16000</v>
@@ -1226,7 +1204,7 @@
         <v>1000</v>
       </c>
       <c r="K16" s="2">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L16" s="2">
         <v>10</v>
@@ -1238,18 +1216,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>-132500</v>
+        <v>132500</v>
       </c>
       <c r="C17" s="2">
-        <v>-300000</v>
+        <v>300000</v>
       </c>
       <c r="D17" s="2">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2">
         <v>950</v>
@@ -1258,7 +1236,7 @@
         <v>1.28</v>
       </c>
       <c r="G17" s="2">
-        <v>-55</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2">
         <v>17000</v>
@@ -1270,7 +1248,7 @@
         <v>1000</v>
       </c>
       <c r="K17" s="2">
-        <v>-110</v>
+        <v>110</v>
       </c>
       <c r="L17" s="2">
         <v>10</v>
@@ -1282,18 +1260,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>-145000</v>
+        <v>145000</v>
       </c>
       <c r="C18" s="2">
-        <v>-330000</v>
+        <v>330000</v>
       </c>
       <c r="D18" s="2">
-        <v>-27</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2">
         <v>1000</v>
@@ -1302,7 +1280,7 @@
         <v>1.22</v>
       </c>
       <c r="G18" s="2">
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="H18" s="2">
         <v>18000</v>
@@ -1314,7 +1292,7 @@
         <v>1000</v>
       </c>
       <c r="K18" s="2">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L18" s="2">
         <v>10</v>
@@ -1326,18 +1304,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>-157500</v>
+        <v>157500</v>
       </c>
       <c r="C19" s="2">
-        <v>-360000</v>
+        <v>360000</v>
       </c>
       <c r="D19" s="2">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2">
         <v>1050</v>
@@ -1346,7 +1324,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G19" s="2">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2">
         <v>19000</v>
@@ -1358,7 +1336,7 @@
         <v>1000</v>
       </c>
       <c r="K19" s="2">
-        <v>-130</v>
+        <v>130</v>
       </c>
       <c r="L19" s="2">
         <v>10</v>
@@ -1370,18 +1348,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>170000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>390000</v>
+      </c>
+      <c r="D20" s="2">
         <v>31</v>
-      </c>
-      <c r="B20" s="2">
-        <v>-170000</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-390000</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-31</v>
       </c>
       <c r="E20" s="2">
         <v>1100</v>
@@ -1390,7 +1368,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G20" s="2">
-        <v>-70</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
         <v>20000</v>
@@ -1402,7 +1380,7 @@
         <v>1000</v>
       </c>
       <c r="K20" s="2">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L20" s="2">
         <v>10</v>
@@ -1415,7 +1393,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>